--- a/1-Algorithm_test/leetcode/4-周赛/周赛分析.xlsx
+++ b/1-Algorithm_test/leetcode/4-周赛/周赛分析.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\languguetest\4-Cplusplus\leetcode\4-周赛\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\languguetest\Cplusplustest\1-Algorithm_test\leetcode\4-周赛\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1453433-7D55-47C0-A2C1-41DDA93A33F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95B690D-2DA9-4452-8F09-5E1D00BAF295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{0B88C1B5-A7EB-4D31-9CC8-02929922C0EC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{0B88C1B5-A7EB-4D31-9CC8-02929922C0EC}"/>
   </bookViews>
   <sheets>
     <sheet name="周赛" sheetId="1" r:id="rId1"/>
     <sheet name="双周赛" sheetId="2" r:id="rId2"/>
+    <sheet name="LCCPU" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,27 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="78">
   <si>
     <t>第 290 场周赛</t>
   </si>
   <si>
-    <t>T1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>第 287 场周赛</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -89,10 +73,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>优化后</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>双指针+差分数组</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -193,6 +173,143 @@
   </si>
   <si>
     <t>Djtasla+dfs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>比赛情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重做情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>思路</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进阶思路</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第 291 场周赛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCP 61. 气温变化趋势 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>LCP 62. 交通枢纽 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>LCP 63. 弹珠游戏 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>LCP 64. 二叉树灯饰 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>LCP 65. 舒适的湿度 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2022秋赛题集-个人赛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022秋赛题集-团队赛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCP 66. 最小展台数量 - 力扣（Leetcode）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCP 67. 装饰树 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>一遍模拟就可以</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第 338 场周赛</t>
+  </si>
+  <si>
+    <t>2600. K 件物品的最大和 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2601. 质数减法运算 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2602. 使数组元素全部相等的最少操作次数 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2603. 收集树中金币 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>素数筛+二分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序+前缀和+二分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第 308 场周赛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2389. 和有限的最长子序列 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2390. 从字符串中移除星号 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2391. 收集垃圾的最少总时间 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2392. 给定条件下构造矩阵 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>大模拟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要转换思路</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大模拟，思维题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈，思维题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拓扑排序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过改变下标改变入射方向</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -200,7 +317,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,19 +358,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -273,7 +391,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -286,15 +404,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -610,205 +720,329 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5397C853-B4C5-4EAD-B4B8-5038ABDC268C}">
-  <dimension ref="B1:N29"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="32.88671875" customWidth="1"/>
-    <col min="5" max="5" width="31.77734375" customWidth="1"/>
-    <col min="6" max="6" width="35.109375" customWidth="1"/>
-    <col min="7" max="7" width="28.6640625" customWidth="1"/>
-    <col min="8" max="8" width="19.21875" customWidth="1"/>
-    <col min="10" max="10" width="36.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="55" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" customWidth="1"/>
+    <col min="8" max="8" width="36.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
       <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="F15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="3" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="5" t="s">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J26" s="3"/>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J27" s="3"/>
-      <c r="K27" s="2"/>
-      <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J28" s="3"/>
-      <c r="K28" s="2"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J29" s="3"/>
-      <c r="K29" s="2"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" t="s">
+        <v>72</v>
+      </c>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" t="s">
+        <v>75</v>
+      </c>
+      <c r="I27" s="2"/>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" t="s">
+        <v>65</v>
+      </c>
+      <c r="I28" s="2"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" t="s">
+        <v>63</v>
+      </c>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D11" r:id="rId1" display="https://leetcode-cn.com/problems/calculate-digit-sum-of-a-string/" xr:uid="{92390613-2690-4A72-AD3C-A94561F568ED}"/>
-    <hyperlink ref="E11" r:id="rId2" display="https://leetcode-cn.com/problems/minimum-rounds-to-complete-all-tasks/" xr:uid="{579B334D-5731-4BCA-B0F0-9EEC3A677D76}"/>
-    <hyperlink ref="F11" r:id="rId3" display="https://leetcode-cn.com/problems/maximum-trailing-zeros-in-a-cornered-path/" xr:uid="{DC37A221-53F3-4828-B172-36A252BFF4B7}"/>
-    <hyperlink ref="G11" r:id="rId4" display="https://leetcode-cn.com/problems/longest-path-with-different-adjacent-characters/" xr:uid="{7BCD1E5A-C64C-4928-92B5-EB9E58792934}"/>
-    <hyperlink ref="D14" r:id="rId5" display="https://leetcode-cn.com/problems/intersection-of-multiple-arrays/" xr:uid="{71533449-0798-4DB1-AD35-561D16A9928F}"/>
-    <hyperlink ref="E14" r:id="rId6" display="https://leetcode-cn.com/problems/count-lattice-points-inside-a-circle/" xr:uid="{5FDC74A8-F467-4CCF-AE14-7F291A1117C6}"/>
-    <hyperlink ref="F14" r:id="rId7" display="https://leetcode-cn.com/problems/count-number-of-rectangles-containing-each-point/" xr:uid="{24324C90-D958-4169-ADB2-A04D8B15981C}"/>
-    <hyperlink ref="G14" r:id="rId8" display="https://leetcode-cn.com/problems/number-of-flowers-in-full-bloom/" xr:uid="{84221A60-F3B1-4AEE-8594-BA33219A8A0C}"/>
-    <hyperlink ref="E18" r:id="rId9" display="https://leetcode-cn.com/problems/minimum-consecutive-cards-to-pick-up/" xr:uid="{9F2CC9A0-2770-48BA-8A91-C5DF6BA515CF}"/>
-    <hyperlink ref="D18" r:id="rId10" display="https://leetcode-cn.com/problems/remove-digit-from-number-to-maximize-result/" xr:uid="{76DFAD58-F92F-4992-98C3-B4146300B5D1}"/>
-    <hyperlink ref="F18" r:id="rId11" display="https://leetcode-cn.com/problems/k-divisible-elements-subarrays/" xr:uid="{AE0200B9-32E0-41C5-88F9-CC0CBC585A57}"/>
-    <hyperlink ref="G18" r:id="rId12" display="https://leetcode-cn.com/problems/total-appeal-of-a-string/" xr:uid="{E5A67FD6-73E3-43CF-8EE4-AE8E448049FD}"/>
+    <hyperlink ref="B10" r:id="rId1" display="https://leetcode-cn.com/problems/calculate-digit-sum-of-a-string/" xr:uid="{92390613-2690-4A72-AD3C-A94561F568ED}"/>
+    <hyperlink ref="B11" r:id="rId2" display="https://leetcode-cn.com/problems/minimum-rounds-to-complete-all-tasks/" xr:uid="{579B334D-5731-4BCA-B0F0-9EEC3A677D76}"/>
+    <hyperlink ref="B12" r:id="rId3" display="https://leetcode-cn.com/problems/maximum-trailing-zeros-in-a-cornered-path/" xr:uid="{DC37A221-53F3-4828-B172-36A252BFF4B7}"/>
+    <hyperlink ref="B13" r:id="rId4" display="https://leetcode-cn.com/problems/longest-path-with-different-adjacent-characters/" xr:uid="{7BCD1E5A-C64C-4928-92B5-EB9E58792934}"/>
+    <hyperlink ref="B14" r:id="rId5" display="https://leetcode-cn.com/problems/intersection-of-multiple-arrays/" xr:uid="{71533449-0798-4DB1-AD35-561D16A9928F}"/>
+    <hyperlink ref="B15" r:id="rId6" display="https://leetcode-cn.com/problems/count-lattice-points-inside-a-circle/" xr:uid="{5FDC74A8-F467-4CCF-AE14-7F291A1117C6}"/>
+    <hyperlink ref="B16" r:id="rId7" display="https://leetcode-cn.com/problems/count-number-of-rectangles-containing-each-point/" xr:uid="{24324C90-D958-4169-ADB2-A04D8B15981C}"/>
+    <hyperlink ref="B17" r:id="rId8" display="https://leetcode-cn.com/problems/number-of-flowers-in-full-bloom/" xr:uid="{84221A60-F3B1-4AEE-8594-BA33219A8A0C}"/>
+    <hyperlink ref="B19" r:id="rId9" display="https://leetcode-cn.com/problems/minimum-consecutive-cards-to-pick-up/" xr:uid="{9F2CC9A0-2770-48BA-8A91-C5DF6BA515CF}"/>
+    <hyperlink ref="B18" r:id="rId10" display="https://leetcode-cn.com/problems/remove-digit-from-number-to-maximize-result/" xr:uid="{76DFAD58-F92F-4992-98C3-B4146300B5D1}"/>
+    <hyperlink ref="B20" r:id="rId11" display="https://leetcode-cn.com/problems/k-divisible-elements-subarrays/" xr:uid="{AE0200B9-32E0-41C5-88F9-CC0CBC585A57}"/>
+    <hyperlink ref="B21" r:id="rId12" display="https://leetcode-cn.com/problems/total-appeal-of-a-string/" xr:uid="{E5A67FD6-73E3-43CF-8EE4-AE8E448049FD}"/>
+    <hyperlink ref="B28" r:id="rId13" display="https://leetcode.cn/problems/k-items-with-the-maximum-sum/" xr:uid="{8CBAF0AD-3198-4B39-B9F8-40E529FE887E}"/>
+    <hyperlink ref="B29" r:id="rId14" display="https://leetcode.cn/problems/prime-subtraction-operation/" xr:uid="{66127508-37B7-4373-B6D5-51CB879E4590}"/>
+    <hyperlink ref="B30" r:id="rId15" display="https://leetcode.cn/problems/minimum-operations-to-make-all-array-elements-equal/" xr:uid="{0BC9EB52-67D2-42FF-972D-2775973A8EED}"/>
+    <hyperlink ref="B31" r:id="rId16" display="https://leetcode.cn/problems/collect-coins-in-a-tree/" xr:uid="{23E311E4-2C26-484E-B2F6-826ED0726D50}"/>
+    <hyperlink ref="B24" r:id="rId17" display="https://leetcode.cn/problems/longest-subsequence-with-limited-sum/" xr:uid="{C8B3A4F7-6AA6-49D9-B77E-682E7525D133}"/>
+    <hyperlink ref="B25" r:id="rId18" display="https://leetcode.cn/problems/removing-stars-from-a-string/" xr:uid="{1A1A2613-DC5F-4AF8-B410-C04D6043EFBB}"/>
+    <hyperlink ref="B26" r:id="rId19" display="https://leetcode.cn/problems/minimum-amount-of-time-to-collect-garbage/" xr:uid="{80902D2C-58AA-4285-B58A-286CF3A0FA5A}"/>
+    <hyperlink ref="B27" r:id="rId20" display="https://leetcode.cn/problems/build-a-matrix-with-conditions/" xr:uid="{F4A952B7-5EC5-47AA-A950-D7F24CE484AB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
 
@@ -816,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25621E5D-1D58-4880-81B3-66E4EE13DB90}">
   <dimension ref="B3:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -831,33 +1065,33 @@
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -870,4 +1104,126 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C561DE90-0DAB-4A83-AD18-2F33BBA429B1}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
+    <col min="6" max="6" width="19.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://leetcode.cn/problems/6CE719/?envType=study-plan&amp;id=2022-qiu-sai-ti-ji&amp;plan=lccup&amp;plan_progress=xxjbt7sh" xr:uid="{B557584D-761F-402F-AD86-EDD8D72C9B7E}"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://leetcode.cn/problems/D9PW8w/?envType=study-plan&amp;id=2022-qiu-sai-ti-ji&amp;plan=lccup&amp;plan_progress=xxjbt7sh" xr:uid="{06852B20-6A64-47CD-B10E-BBA8155896A0}"/>
+    <hyperlink ref="B4" r:id="rId3" display="https://leetcode.cn/problems/EXvqDp/" xr:uid="{0A398C8E-929D-4A4F-A629-EECB58AD90BA}"/>
+    <hyperlink ref="B5" r:id="rId4" display="https://leetcode.cn/problems/U7WvvU/" xr:uid="{0C035214-2602-4CC6-ADFB-6132D96732CF}"/>
+    <hyperlink ref="B8" r:id="rId5" display="https://leetcode.cn/problems/600YaG/" xr:uid="{19F6B9B0-CDE6-4993-9F9D-2C9DEEC6ECA0}"/>
+    <hyperlink ref="B6" r:id="rId6" display="https://leetcode.cn/problems/3aqs1c/" xr:uid="{19B9A5E9-3365-4D29-9B18-C4439621964E}"/>
+    <hyperlink ref="B9" r:id="rId7" display="https://leetcode.cn/problems/KnLfVT/" xr:uid="{AD5DA50A-28DF-47E4-AEBE-172B3BE79121}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/1-Algorithm_test/leetcode/4-周赛/周赛分析.xlsx
+++ b/1-Algorithm_test/leetcode/4-周赛/周赛分析.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\languguetest\Cplusplustest\1-Algorithm_test\leetcode\4-周赛\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95B690D-2DA9-4452-8F09-5E1D00BAF295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E56BC92-E8ED-4A1D-8382-6F56DC3B5845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{0B88C1B5-A7EB-4D31-9CC8-02929922C0EC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{0B88C1B5-A7EB-4D31-9CC8-02929922C0EC}"/>
   </bookViews>
   <sheets>
-    <sheet name="周赛" sheetId="1" r:id="rId1"/>
+    <sheet name="周赛" sheetId="5" r:id="rId1"/>
     <sheet name="双周赛" sheetId="2" r:id="rId2"/>
     <sheet name="LCCPU" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">周赛!$A$1:$G$54</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,13 +39,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="121">
   <si>
     <t>第 290 场周赛</t>
   </si>
   <si>
     <t>第 287 场周赛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>第 288 场周赛</t>
@@ -52,7 +55,7 @@
   </si>
   <si>
     <t>第 271 场周赛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>第 272 场周赛</t>
@@ -62,87 +65,51 @@
   </si>
   <si>
     <t>二分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>哈希表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>暴力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>双指针+差分数组</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>排序+二分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>树状数组</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>模拟</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>哈希+贪心</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>前缀和</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>树形DP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算字符串的数字和</t>
-  </si>
-  <si>
-    <t>完成所有任务需要的最少轮数</t>
-  </si>
-  <si>
-    <t>转角路径的乘积中最多能有几个尾随零</t>
-  </si>
-  <si>
-    <t>相邻字符不同的最长路径</t>
-  </si>
-  <si>
-    <t>多个数组求交集</t>
-  </si>
-  <si>
-    <t>统计圆内格点数目</t>
-  </si>
-  <si>
-    <t>统计包含每个点的矩形数目</t>
-  </si>
-  <si>
-    <t>花期内花的数目</t>
-  </si>
-  <si>
-    <t>必须拿起的最小连续卡牌数</t>
-  </si>
-  <si>
-    <t>移除指定数字得到的最大结果</t>
-  </si>
-  <si>
-    <t>含最多 K 个可整除元素的子数组</t>
-  </si>
-  <si>
-    <t>字符串的总引力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>哈希表内嵌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>一个哈希表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>第 77 场双周赛</t>
@@ -161,47 +128,47 @@
   </si>
   <si>
     <t>哈希表+模拟</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>暴力dfs</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>前缀和，需要开long long，不然会爆掉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Djtasla+dfs</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>比赛情况</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>重做情况</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>思路</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>进阶思路</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>第 291 场周赛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>LCP 61. 气温变化趋势 - 力扣（Leetcode）</t>
@@ -220,22 +187,22 @@
   </si>
   <si>
     <t>2022秋赛题集-个人赛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2022秋赛题集-团队赛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LCP 66. 最小展台数量 - 力扣（Leetcode）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LCP 67. 装饰树 - 力扣（Leetcode）</t>
   </si>
   <si>
     <t>一遍模拟就可以</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>第 338 场周赛</t>
@@ -254,23 +221,23 @@
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>素数筛+二分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>排序+前缀和+二分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>贪心</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>第 308 场周赛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2389. 和有限的最长子序列 - 力扣（Leetcode）</t>
@@ -286,49 +253,225 @@
   </si>
   <si>
     <t>大模拟</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>需要转换思路</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>大模拟，思维题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>栈，思维题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>拓扑排序</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>通过改变下标改变入射方向</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2260. 必须拿起的最小连续卡牌数 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2262. 字符串的总引力 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2259. 移除指定数字得到的最大结果 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2261. 含最多 K 个可整除元素的子数组 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2251. 花期内花的数目 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2250. 统计包含每个点的矩形数目 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2249. 统计圆内格点数目 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2248. 多个数组求交集 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2244. 完成所有任务需要的最少轮数 - 力扣（Leetcode）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2245. 转角路径的乘积中最多能有几个尾随零 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2246. 相邻字符不同的最长路径 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2243. 计算字符串的数字和 - 力扣（Leetcode）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比赛题目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周赛场次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第 294 场周赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2278. 字母在字符串中的百分比 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2279. 装满石头的背包的最大数量 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2281. 巫师的总力量和 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2280. 表示一个折线图的最少线段数 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>第 293 场周赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2273. 移除字母异位词后的结果数组 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2274. 不含特殊楼层的最大连续楼层数 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2275. 按位与结果大于零的最长组合 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2276. 统计区间中的整数数目 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>第 292 场周赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第 298 场周赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2264. 字符串中最大的 3 位相同数字 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2265. 统计值等于子树平均值的节点数 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2266. 统计打字方案数 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2267. 检查是否有合法括号字符串路径 - 力扣（Leetcode）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2309. 兼具大小写的最好英文字母 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2310. 个位数字为 K 的整数之和 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2311. 小于等于 K 的最长二进制子序列 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2312. 卖木头块 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>第 335 场周赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第 336 场周赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第 319 场周赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2586. 统计范围内的元音字符串数 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2587. 重排数组以得到最大前缀分数 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2588. 统计美丽子数组数目 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2589. 完成所有任务的最少时间 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2582. 递枕头 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2583. 二叉树中的第 K 大层和 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2584. 分割数组使乘积互质 - 力扣（Leetcode）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2585. 获得分数的方法数 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2469. 温度转换 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2470. 最小公倍数为 K 的子数组数目 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2471. 逐层排序二叉树所需的最少操作数目 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2472. 不重叠回文子字符串的最大数目 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>分数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -351,19 +494,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <u/>
+      <sz val="8"/>
+      <color rgb="FF111111"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -387,24 +529,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -719,330 +858,781 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5397C853-B4C5-4EAD-B4B8-5038ABDC268C}">
-  <dimension ref="A1:L31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243F350D-8E2A-4BE4-A174-F616E6119432}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
-    <col min="2" max="2" width="55" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="20.21875" customWidth="1"/>
-    <col min="8" max="8" width="36.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="58.5546875" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
+        <v>78</v>
+      </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="F1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" hidden="1">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" hidden="1">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" hidden="1">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" hidden="1">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" hidden="1">
       <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" hidden="1">
+      <c r="B9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" hidden="1">
+      <c r="B10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11">
+        <v>1242</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" hidden="1">
+      <c r="B12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12">
+        <v>1558</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" hidden="1">
+      <c r="B13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13">
+        <v>1839</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" hidden="1">
+      <c r="B14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14">
+        <v>2363</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15">
+        <v>1264</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16">
+        <v>1602</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" hidden="1">
+      <c r="B17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" hidden="1">
+      <c r="B18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18">
+        <v>2022</v>
+      </c>
+      <c r="F18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19">
+        <v>1331</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="B20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20">
+        <v>1364</v>
+      </c>
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="G20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" hidden="1">
+      <c r="B21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" hidden="1">
+      <c r="B22" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23">
+        <v>1308</v>
+      </c>
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="B24" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24">
+        <v>1472</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" hidden="1">
+      <c r="B25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25">
+        <v>1856</v>
+      </c>
+      <c r="D25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" hidden="1">
+      <c r="B26" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26">
+        <v>2084</v>
+      </c>
+      <c r="D26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27">
+        <v>1294</v>
+      </c>
+      <c r="D27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="B28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28">
+        <v>1332</v>
+      </c>
+      <c r="D28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" hidden="1">
+      <c r="B29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29">
+        <v>1642</v>
+      </c>
+      <c r="D29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" hidden="1">
+      <c r="B30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30">
+        <v>2222</v>
+      </c>
+      <c r="D30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31">
+        <v>1161</v>
+      </c>
+      <c r="D31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="B32" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32">
+        <v>1249</v>
+      </c>
+      <c r="D32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" hidden="1">
+      <c r="B33" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33">
+        <v>1680</v>
+      </c>
+      <c r="D33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" hidden="1">
+      <c r="B34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34">
+        <v>2621</v>
+      </c>
+      <c r="D34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" hidden="1">
+      <c r="A35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35">
+        <v>1387</v>
+      </c>
+      <c r="D35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" hidden="1">
+      <c r="B36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36">
+        <v>1347</v>
+      </c>
+      <c r="D36" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" hidden="1">
+      <c r="B37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37">
+        <v>1455</v>
+      </c>
+      <c r="D37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" t="s">
+        <v>61</v>
+      </c>
+      <c r="G37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" hidden="1">
+      <c r="B38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38">
+        <v>1960</v>
+      </c>
+      <c r="D38" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39">
+        <v>1153</v>
+      </c>
+      <c r="D39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" hidden="1">
+      <c r="B40" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40">
+        <v>1559</v>
+      </c>
+      <c r="D40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" hidden="1">
+      <c r="B41" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41">
+        <v>1635</v>
+      </c>
+      <c r="D41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" hidden="1">
+      <c r="B42" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42">
+        <v>2013</v>
+      </c>
+      <c r="D42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43">
+        <v>1278</v>
+      </c>
+      <c r="D43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="B44" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44">
+        <v>1374</v>
+      </c>
+      <c r="D44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" hidden="1">
+      <c r="B45" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45">
+        <v>1909</v>
+      </c>
+      <c r="D45" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" hidden="1">
+      <c r="B46" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46">
+        <v>2159</v>
+      </c>
+      <c r="D46" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47">
+        <v>1178</v>
+      </c>
+      <c r="D47" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="B48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48">
+        <v>1336</v>
+      </c>
+      <c r="D48" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" hidden="1">
+      <c r="B49" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49">
+        <v>1696</v>
+      </c>
+      <c r="D49" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" hidden="1">
+      <c r="B50" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50">
+        <v>2380</v>
+      </c>
+      <c r="D50" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" hidden="1">
+      <c r="A51" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="B51" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" t="s">
-        <v>73</v>
-      </c>
-      <c r="F26" t="s">
-        <v>72</v>
-      </c>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" t="s">
-        <v>75</v>
-      </c>
-      <c r="I27" s="2"/>
-      <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" t="s">
-        <v>65</v>
-      </c>
-      <c r="I28" s="2"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" t="s">
-        <v>63</v>
-      </c>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>46</v>
+      <c r="D51" t="s">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>33</v>
+      </c>
+      <c r="F51" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" hidden="1">
+      <c r="B52" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" t="s">
+        <v>50</v>
+      </c>
+      <c r="E52" t="s">
+        <v>34</v>
+      </c>
+      <c r="F52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" hidden="1">
+      <c r="B53" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" t="s">
+        <v>50</v>
+      </c>
+      <c r="E53" t="s">
+        <v>33</v>
+      </c>
+      <c r="F53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" hidden="1">
+      <c r="B54" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D54" t="s">
+        <v>50</v>
+      </c>
+      <c r="E54" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="I55" t="s">
+        <v>33</v>
+      </c>
+      <c r="J55" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="H56" t="s">
+        <v>118</v>
+      </c>
+      <c r="I56">
+        <f>SUBTOTAL(4,C7:C48)</f>
+        <v>1602</v>
+      </c>
+      <c r="J56">
+        <f>SUBTOTAL(4,C12:C50)</f>
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="H57" t="s">
+        <v>120</v>
+      </c>
+      <c r="I57">
+        <f>SUBTOTAL(5,C8:C49)</f>
+        <v>1153</v>
+      </c>
+      <c r="J57">
+        <f>SUBTOTAL(5,C12:C50)</f>
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="H58" t="s">
+        <v>119</v>
+      </c>
+      <c r="I58">
+        <f>SUBTOTAL(1,C7:C48)</f>
+        <v>1308.625</v>
+      </c>
+      <c r="J58">
+        <f>SUBTOTAL(1,C12:C50)</f>
+        <v>1313.0666666666666</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <autoFilter ref="A1:G54" xr:uid="{243F350D-8E2A-4BE4-A174-F616E6119432}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="√"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1" display="https://leetcode-cn.com/problems/calculate-digit-sum-of-a-string/" xr:uid="{92390613-2690-4A72-AD3C-A94561F568ED}"/>
-    <hyperlink ref="B11" r:id="rId2" display="https://leetcode-cn.com/problems/minimum-rounds-to-complete-all-tasks/" xr:uid="{579B334D-5731-4BCA-B0F0-9EEC3A677D76}"/>
-    <hyperlink ref="B12" r:id="rId3" display="https://leetcode-cn.com/problems/maximum-trailing-zeros-in-a-cornered-path/" xr:uid="{DC37A221-53F3-4828-B172-36A252BFF4B7}"/>
-    <hyperlink ref="B13" r:id="rId4" display="https://leetcode-cn.com/problems/longest-path-with-different-adjacent-characters/" xr:uid="{7BCD1E5A-C64C-4928-92B5-EB9E58792934}"/>
-    <hyperlink ref="B14" r:id="rId5" display="https://leetcode-cn.com/problems/intersection-of-multiple-arrays/" xr:uid="{71533449-0798-4DB1-AD35-561D16A9928F}"/>
-    <hyperlink ref="B15" r:id="rId6" display="https://leetcode-cn.com/problems/count-lattice-points-inside-a-circle/" xr:uid="{5FDC74A8-F467-4CCF-AE14-7F291A1117C6}"/>
-    <hyperlink ref="B16" r:id="rId7" display="https://leetcode-cn.com/problems/count-number-of-rectangles-containing-each-point/" xr:uid="{24324C90-D958-4169-ADB2-A04D8B15981C}"/>
-    <hyperlink ref="B17" r:id="rId8" display="https://leetcode-cn.com/problems/number-of-flowers-in-full-bloom/" xr:uid="{84221A60-F3B1-4AEE-8594-BA33219A8A0C}"/>
-    <hyperlink ref="B19" r:id="rId9" display="https://leetcode-cn.com/problems/minimum-consecutive-cards-to-pick-up/" xr:uid="{9F2CC9A0-2770-48BA-8A91-C5DF6BA515CF}"/>
-    <hyperlink ref="B18" r:id="rId10" display="https://leetcode-cn.com/problems/remove-digit-from-number-to-maximize-result/" xr:uid="{76DFAD58-F92F-4992-98C3-B4146300B5D1}"/>
-    <hyperlink ref="B20" r:id="rId11" display="https://leetcode-cn.com/problems/k-divisible-elements-subarrays/" xr:uid="{AE0200B9-32E0-41C5-88F9-CC0CBC585A57}"/>
-    <hyperlink ref="B21" r:id="rId12" display="https://leetcode-cn.com/problems/total-appeal-of-a-string/" xr:uid="{E5A67FD6-73E3-43CF-8EE4-AE8E448049FD}"/>
-    <hyperlink ref="B28" r:id="rId13" display="https://leetcode.cn/problems/k-items-with-the-maximum-sum/" xr:uid="{8CBAF0AD-3198-4B39-B9F8-40E529FE887E}"/>
-    <hyperlink ref="B29" r:id="rId14" display="https://leetcode.cn/problems/prime-subtraction-operation/" xr:uid="{66127508-37B7-4373-B6D5-51CB879E4590}"/>
-    <hyperlink ref="B30" r:id="rId15" display="https://leetcode.cn/problems/minimum-operations-to-make-all-array-elements-equal/" xr:uid="{0BC9EB52-67D2-42FF-972D-2775973A8EED}"/>
-    <hyperlink ref="B31" r:id="rId16" display="https://leetcode.cn/problems/collect-coins-in-a-tree/" xr:uid="{23E311E4-2C26-484E-B2F6-826ED0726D50}"/>
-    <hyperlink ref="B24" r:id="rId17" display="https://leetcode.cn/problems/longest-subsequence-with-limited-sum/" xr:uid="{C8B3A4F7-6AA6-49D9-B77E-682E7525D133}"/>
-    <hyperlink ref="B25" r:id="rId18" display="https://leetcode.cn/problems/removing-stars-from-a-string/" xr:uid="{1A1A2613-DC5F-4AF8-B410-C04D6043EFBB}"/>
-    <hyperlink ref="B26" r:id="rId19" display="https://leetcode.cn/problems/minimum-amount-of-time-to-collect-garbage/" xr:uid="{80902D2C-58AA-4285-B58A-286CF3A0FA5A}"/>
-    <hyperlink ref="B27" r:id="rId20" display="https://leetcode.cn/problems/build-a-matrix-with-conditions/" xr:uid="{F4A952B7-5EC5-47AA-A950-D7F24CE484AB}"/>
+    <hyperlink ref="B51" r:id="rId1" display="https://leetcode.cn/problems/k-items-with-the-maximum-sum/" xr:uid="{488FAA5F-9C49-4264-94BF-18CE818F4B35}"/>
+    <hyperlink ref="B52" r:id="rId2" display="https://leetcode.cn/problems/prime-subtraction-operation/" xr:uid="{9094CA2B-952E-46B6-BF8D-A761A4273B37}"/>
+    <hyperlink ref="B53" r:id="rId3" display="https://leetcode.cn/problems/minimum-operations-to-make-all-array-elements-equal/" xr:uid="{E72653DF-70E4-4F12-95E1-AB1796D8AE4B}"/>
+    <hyperlink ref="B54" r:id="rId4" display="https://leetcode.cn/problems/collect-coins-in-a-tree/" xr:uid="{95C3CD9D-F257-44DC-9A0F-A8F26C49D7CB}"/>
+    <hyperlink ref="B35" r:id="rId5" display="https://leetcode.cn/problems/longest-subsequence-with-limited-sum/" xr:uid="{CB28E1D1-F02B-4370-B263-8A333616DD32}"/>
+    <hyperlink ref="B36" r:id="rId6" display="https://leetcode.cn/problems/removing-stars-from-a-string/" xr:uid="{441E81F1-445B-409B-9A01-729099A16E50}"/>
+    <hyperlink ref="B37" r:id="rId7" display="https://leetcode.cn/problems/minimum-amount-of-time-to-collect-garbage/" xr:uid="{7F86F450-E0F4-47DD-86E3-0C338BA3F3A1}"/>
+    <hyperlink ref="B38" r:id="rId8" display="https://leetcode.cn/problems/build-a-matrix-with-conditions/" xr:uid="{7EB51405-5A81-42F0-B81E-E7A261D09FBD}"/>
+    <hyperlink ref="B20" r:id="rId9" display="https://leetcode.cn/problems/minimum-consecutive-cards-to-pick-up/" xr:uid="{4362A3E1-1436-47DD-AD5E-B7EF842C4686}"/>
+    <hyperlink ref="B22" r:id="rId10" display="https://leetcode.cn/problems/total-appeal-of-a-string/" xr:uid="{7EDC73CE-C755-4EE8-8216-71E8EE6045CE}"/>
+    <hyperlink ref="B19" r:id="rId11" display="https://leetcode.cn/problems/remove-digit-from-number-to-maximize-result/" xr:uid="{56AEC1F5-4BB3-432B-B9A2-1803E33857CF}"/>
+    <hyperlink ref="B21" r:id="rId12" display="https://leetcode.cn/problems/k-divisible-elements-subarrays/" xr:uid="{91BF813C-D73C-42CE-9B46-B5875F5A8DCC}"/>
+    <hyperlink ref="B18" r:id="rId13" display="https://leetcode.cn/problems/number-of-flowers-in-full-bloom/" xr:uid="{E774ACB7-64A4-4595-AA40-2D610F93C6AC}"/>
+    <hyperlink ref="B17" r:id="rId14" display="https://leetcode.cn/problems/count-number-of-rectangles-containing-each-point/" xr:uid="{91136382-CB40-4F1F-B161-FA8003B71158}"/>
+    <hyperlink ref="B16" r:id="rId15" display="https://leetcode.cn/problems/count-lattice-points-inside-a-circle/" xr:uid="{753552C0-9201-4777-B4A3-B582067A7674}"/>
+    <hyperlink ref="B15" r:id="rId16" display="https://leetcode.cn/problems/intersection-of-multiple-arrays/" xr:uid="{FC4FB3AA-6F49-486D-9257-4A2CDA4E6413}"/>
+    <hyperlink ref="B7" r:id="rId17" display="https://leetcode.cn/problems/calculate-digit-sum-of-a-string/" xr:uid="{248CA1CF-8D8B-4C6D-AF06-DDACA597CA1A}"/>
+    <hyperlink ref="B8" r:id="rId18" display="https://leetcode.cn/problems/minimum-rounds-to-complete-all-tasks/" xr:uid="{D971E415-B759-439D-80AF-9ADB94EA3088}"/>
+    <hyperlink ref="B9" r:id="rId19" display="https://leetcode.cn/problems/maximum-trailing-zeros-in-a-cornered-path/" xr:uid="{5AE2825E-99DA-4399-AC44-CAF7879D350B}"/>
+    <hyperlink ref="B10" r:id="rId20" display="https://leetcode.cn/problems/longest-path-with-different-adjacent-characters/" xr:uid="{F1A07810-7EC6-426E-B233-FAA0BCF7F993}"/>
+    <hyperlink ref="B31" r:id="rId21" display="https://leetcode.cn/problems/percentage-of-letter-in-string/" xr:uid="{98B5095F-4082-4181-BE36-F86531D2F32C}"/>
+    <hyperlink ref="B32" r:id="rId22" display="https://leetcode.cn/problems/maximum-bags-with-full-capacity-of-rocks/" xr:uid="{5711A668-76A4-4D22-A16E-5654211304A7}"/>
+    <hyperlink ref="B33" r:id="rId23" display="https://leetcode.cn/problems/sum-of-total-strength-of-wizards/" xr:uid="{D9FB14C4-1AC0-436D-9343-D809F54E2465}"/>
+    <hyperlink ref="B34" r:id="rId24" display="https://leetcode.cn/problems/minimum-lines-to-represent-a-line-chart/solutions/" xr:uid="{868B8404-86A9-424B-8081-6F4AFDC1EB23}"/>
+    <hyperlink ref="B28" r:id="rId25" display="https://leetcode.cn/problems/maximum-consecutive-floors-without-special-floors/" xr:uid="{5DDD6F8E-A264-40A7-9E8C-DA50FD1221E9}"/>
+    <hyperlink ref="B27" r:id="rId26" display="https://leetcode.cn/problems/find-resultant-array-after-removing-anagrams/description/" xr:uid="{1CD5596D-6B28-48E6-965C-B962B008BA7C}"/>
+    <hyperlink ref="B29" r:id="rId27" display="https://leetcode.cn/problems/largest-combination-with-bitwise-and-greater-than-zero/" xr:uid="{1FB4A619-9BCF-4BAB-AF06-A134B1534400}"/>
+    <hyperlink ref="B30" r:id="rId28" display="https://leetcode.cn/problems/count-integers-in-intervals/" xr:uid="{49A7537A-BC91-46F0-A4B4-05D40E63E32C}"/>
+    <hyperlink ref="B23" r:id="rId29" display="https://leetcode.cn/problems/largest-3-same-digit-number-in-string/" xr:uid="{7CC651D0-FFAE-470E-9E76-657991B0690C}"/>
+    <hyperlink ref="B24" r:id="rId30" display="https://leetcode.cn/problems/count-nodes-equal-to-average-of-subtree/" xr:uid="{9A5D1937-8891-44F3-AC4C-9005788CCA3A}"/>
+    <hyperlink ref="B25" r:id="rId31" display="https://leetcode.cn/problems/count-number-of-texts/" xr:uid="{EFC56877-BF26-47F5-87D1-D35BC0355771}"/>
+    <hyperlink ref="B26" r:id="rId32" display="https://leetcode.cn/problems/check-if-there-is-a-valid-parentheses-string-path/" xr:uid="{D2431C42-C681-44E4-B8C0-2086B22F5967}"/>
+    <hyperlink ref="B11" r:id="rId33" display="https://leetcode.cn/problems/greatest-english-letter-in-upper-and-lower-case/" xr:uid="{BE5360FD-6ADB-4E48-8AE6-DDCCDF88D498}"/>
+    <hyperlink ref="B12" r:id="rId34" display="https://leetcode.cn/problems/sum-of-numbers-with-units-digit-k/" xr:uid="{3FCE51B0-1304-498B-BC56-CB8604C64825}"/>
+    <hyperlink ref="B13" r:id="rId35" display="https://leetcode.cn/problems/longest-binary-subsequence-less-than-or-equal-to-k/" xr:uid="{6562D1F6-AC17-4BEF-8322-CE671EB974E1}"/>
+    <hyperlink ref="B14" r:id="rId36" display="https://leetcode.cn/problems/selling-pieces-of-wood/" xr:uid="{700564CA-B91D-4BD9-BD9E-6FD1D4EB5FCE}"/>
+    <hyperlink ref="B47" r:id="rId37" display="https://leetcode.cn/problems/count-the-number-of-vowel-strings-in-range/" xr:uid="{BCEB80F1-C2A1-4118-9648-77D53BCFA2E9}"/>
+    <hyperlink ref="B48" r:id="rId38" display="https://leetcode.cn/problems/rearrange-array-to-maximize-prefix-score/" xr:uid="{1943F9B8-5F9E-4335-AC40-0DB607198079}"/>
+    <hyperlink ref="B49" r:id="rId39" display="https://leetcode.cn/problems/count-the-number-of-beautiful-subarrays/" xr:uid="{05C368BC-D583-41E7-B136-5AA9999FA57F}"/>
+    <hyperlink ref="B50" r:id="rId40" display="https://leetcode.cn/problems/minimum-time-to-complete-all-tasks/" xr:uid="{8A740F08-9CFD-40F2-BB5F-D750AB6705C1}"/>
+    <hyperlink ref="B43" r:id="rId41" display="https://leetcode.cn/problems/pass-the-pillow/" xr:uid="{327F2041-F0E4-4B48-AC6C-21399EBDDE23}"/>
+    <hyperlink ref="B44" r:id="rId42" display="https://leetcode.cn/problems/kth-largest-sum-in-a-binary-tree/" xr:uid="{DA912CA1-E634-45D3-B8A8-ABA5408BCC70}"/>
+    <hyperlink ref="B45" r:id="rId43" display="https://leetcode.cn/problems/split-the-array-to-make-coprime-products/" xr:uid="{47DE5281-84A4-40FA-9FCE-63F2971B6A60}"/>
+    <hyperlink ref="B46" r:id="rId44" display="https://leetcode.cn/problems/number-of-ways-to-earn-points/" xr:uid="{2A188A4E-48A9-4DC6-9942-49F353627078}"/>
+    <hyperlink ref="B39" r:id="rId45" display="https://leetcode.cn/problems/convert-the-temperature/" xr:uid="{E629DD1A-A052-4DCD-A139-9A3C10FF7F80}"/>
+    <hyperlink ref="B40" r:id="rId46" display="https://leetcode.cn/problems/number-of-subarrays-with-lcm-equal-to-k/" xr:uid="{501231E1-1653-47C0-A978-26C362943EB2}"/>
+    <hyperlink ref="B41" r:id="rId47" display="https://leetcode.cn/problems/minimum-number-of-operations-to-sort-a-binary-tree-by-level/" xr:uid="{91CB4BA3-CB06-45A6-9810-E1F01727757D}"/>
+    <hyperlink ref="B42" r:id="rId48" display="https://leetcode.cn/problems/maximum-number-of-non-overlapping-palindrome-substrings/" xr:uid="{84A7705C-D1C6-49D2-BC35-7ACD12D1BF9E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId21"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId49"/>
 </worksheet>
 </file>
 
@@ -1054,7 +1644,7 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="2" max="2" width="36.33203125" customWidth="1"/>
     <col min="3" max="3" width="37.5546875" customWidth="1"/>
@@ -1063,39 +1653,39 @@
     <col min="6" max="6" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6">
       <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
       <c r="C4" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" display="https://leetcode-cn.com/problems/count-prefixes-of-a-given-string/" xr:uid="{545BCEF7-EE0D-4592-90FF-E4321B8DF45E}"/>
     <hyperlink ref="D3" r:id="rId2" display="https://leetcode-cn.com/problems/minimum-average-difference/" xr:uid="{7FBD7B71-2125-4DFF-A36E-5B9D6881813F}"/>
@@ -1110,11 +1700,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C561DE90-0DAB-4A83-AD18-2F33BBA429B1}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="20.6640625" customWidth="1"/>
     <col min="2" max="2" width="37.33203125" customWidth="1"/>
@@ -1122,99 +1712,99 @@
     <col min="6" max="6" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>40</v>
       </c>
-      <c r="D1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>45</v>
+      <c r="B2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="G4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>55</v>
+        <v>41</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://leetcode.cn/problems/6CE719/?envType=study-plan&amp;id=2022-qiu-sai-ti-ji&amp;plan=lccup&amp;plan_progress=xxjbt7sh" xr:uid="{B557584D-761F-402F-AD86-EDD8D72C9B7E}"/>
     <hyperlink ref="B3" r:id="rId2" display="https://leetcode.cn/problems/D9PW8w/?envType=study-plan&amp;id=2022-qiu-sai-ti-ji&amp;plan=lccup&amp;plan_progress=xxjbt7sh" xr:uid="{06852B20-6A64-47CD-B10E-BBA8155896A0}"/>
